--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -51,16 +51,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
-    <t>INT_population</t>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -69,6 +59,18 @@
   </si>
   <si>
     <t>INT_recoveryCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="310">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -247,6 +249,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,7 +569,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="310">
+  <cellStyles count="314">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -721,6 +727,8 @@
     <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -871,6 +879,8 @@
     <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1323,7 +1333,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1333,16 +1343,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -1656,7 +1666,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1666,13 +1676,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1923,7 +1933,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1933,13 +1943,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2190,7 +2200,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2200,13 +2210,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2457,7 +2467,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2467,13 +2477,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="6040" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -234,7 +234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -249,6 +249,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +571,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="314">
+  <cellStyles count="316">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -729,6 +731,7 @@
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -881,6 +884,7 @@
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1330,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1341,7 +1345,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,11 +1355,14 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1365,11 +1372,14 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1379,11 +1389,14 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1393,11 +1406,14 @@
       <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>600</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1407,11 +1423,14 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1421,11 +1440,14 @@
       <c r="C6" s="1">
         <v>300</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E6" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1435,11 +1457,14 @@
       <c r="C7" s="1">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
+        <v>10800</v>
+      </c>
+      <c r="E7" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1449,11 +1474,14 @@
       <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
+        <v>21600</v>
+      </c>
+      <c r="E8" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1463,11 +1491,14 @@
       <c r="C9" s="1">
         <v>1500</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
+        <v>32400</v>
+      </c>
+      <c r="E9" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1477,11 +1508,14 @@
       <c r="C10" s="1">
         <v>2000</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
+        <v>43200</v>
+      </c>
+      <c r="E10" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1491,11 +1525,14 @@
       <c r="C11" s="1">
         <v>2500</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
+        <v>54000</v>
+      </c>
+      <c r="E11" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1505,11 +1542,14 @@
       <c r="C12" s="1">
         <v>3000</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
+        <v>64800</v>
+      </c>
+      <c r="E12" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1519,11 +1559,14 @@
       <c r="C13" s="1">
         <v>3500</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
+        <v>75600</v>
+      </c>
+      <c r="E13" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1533,11 +1576,14 @@
       <c r="C14" s="1">
         <v>4000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
+        <v>86400</v>
+      </c>
+      <c r="E14" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1547,11 +1593,14 @@
       <c r="C15" s="1">
         <v>4500</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
+        <v>97200</v>
+      </c>
+      <c r="E15" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1561,11 +1610,14 @@
       <c r="C16" s="1">
         <v>5000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
+        <v>108000</v>
+      </c>
+      <c r="E16" s="3">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1575,11 +1627,14 @@
       <c r="C17" s="1">
         <v>5500</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
+        <v>144000</v>
+      </c>
+      <c r="E17" s="3">
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1589,11 +1644,14 @@
       <c r="C18" s="1">
         <v>6000</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
+        <v>180000</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1603,11 +1661,14 @@
       <c r="C19" s="1">
         <v>6500</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
+        <v>216000</v>
+      </c>
+      <c r="E19" s="3">
         <v>648</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1617,11 +1678,14 @@
       <c r="C20" s="1">
         <v>7000</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
+        <v>252000</v>
+      </c>
+      <c r="E20" s="3">
         <v>696</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1631,11 +1695,14 @@
       <c r="C21" s="1">
         <v>7500</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
+        <v>288000</v>
+      </c>
+      <c r="E21" s="3">
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1645,7 +1712,10 @@
       <c r="C22" s="1">
         <v>8000</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E22" s="3">
         <v>792</v>
       </c>
     </row>
@@ -1666,7 +1736,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2466,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -49,17 +49,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_power</t>
-  </si>
-  <si>
-    <t>INT_recoveryCitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>INT_citizen</t>
@@ -1334,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1345,24 +1341,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1372,14 +1365,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1387,16 +1377,13 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1404,16 +1391,13 @@
         <v>400</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
         <v>600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1421,16 +1405,13 @@
         <v>1200</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
         <v>1800</v>
       </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1438,16 +1419,13 @@
         <v>3600</v>
       </c>
       <c r="C6" s="1">
-        <v>300</v>
-      </c>
-      <c r="D6" s="1">
         <v>3600</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1455,16 +1433,13 @@
         <v>6000</v>
       </c>
       <c r="C7" s="1">
-        <v>500</v>
-      </c>
-      <c r="D7" s="1">
         <v>10800</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1472,16 +1447,13 @@
         <v>12000</v>
       </c>
       <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
         <v>21600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1489,16 +1461,13 @@
         <v>18000</v>
       </c>
       <c r="C9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="1">
         <v>32400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1506,16 +1475,13 @@
         <v>24000</v>
       </c>
       <c r="C10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="1">
         <v>43200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1523,16 +1489,13 @@
         <v>30000</v>
       </c>
       <c r="C11" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="1">
         <v>54000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D11" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1540,16 +1503,13 @@
         <v>36000</v>
       </c>
       <c r="C12" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="1">
         <v>64800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1557,16 +1517,13 @@
         <v>42000</v>
       </c>
       <c r="C13" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D13" s="1">
         <v>75600</v>
       </c>
-      <c r="E13" s="3">
+      <c r="D13" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1574,16 +1531,13 @@
         <v>48000</v>
       </c>
       <c r="C14" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D14" s="1">
         <v>86400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1591,16 +1545,13 @@
         <v>54000</v>
       </c>
       <c r="C15" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D15" s="1">
         <v>97200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1608,16 +1559,13 @@
         <v>60000</v>
       </c>
       <c r="C16" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D16" s="1">
         <v>108000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="D16" s="3">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1625,16 +1573,13 @@
         <v>66000</v>
       </c>
       <c r="C17" s="1">
-        <v>5500</v>
-      </c>
-      <c r="D17" s="1">
         <v>144000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1642,16 +1587,13 @@
         <v>72000</v>
       </c>
       <c r="C18" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D18" s="1">
         <v>180000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1659,16 +1601,13 @@
         <v>78000</v>
       </c>
       <c r="C19" s="1">
-        <v>6500</v>
-      </c>
-      <c r="D19" s="1">
         <v>216000</v>
       </c>
-      <c r="E19" s="3">
+      <c r="D19" s="3">
         <v>648</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1676,16 +1615,13 @@
         <v>84000</v>
       </c>
       <c r="C20" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D20" s="1">
         <v>252000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
         <v>696</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1693,16 +1629,13 @@
         <v>90000</v>
       </c>
       <c r="C21" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D21" s="1">
         <v>288000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1710,12 +1643,9 @@
         <v>96000</v>
       </c>
       <c r="C22" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D22" s="1">
         <v>540000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
         <v>792</v>
       </c>
     </row>
@@ -1749,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2016,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2283,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2550,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1330,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1349,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1357,296 +1361,562 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1">
-        <v>1800</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1">
-        <v>3600</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6000</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1">
-        <v>10800</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>12000</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1">
-        <v>21600</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>18000</v>
+        <v>470</v>
       </c>
       <c r="C9" s="1">
-        <v>32400</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>24000</v>
+        <v>580</v>
       </c>
       <c r="C10" s="1">
-        <v>43200</v>
+        <v>232</v>
       </c>
       <c r="D10" s="3">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>30000</v>
+        <v>700</v>
       </c>
       <c r="C11" s="1">
-        <v>54000</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>36000</v>
+        <v>830</v>
       </c>
       <c r="C12" s="1">
-        <v>64800</v>
+        <v>332</v>
       </c>
       <c r="D12" s="3">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>42000</v>
+        <v>980</v>
       </c>
       <c r="C13" s="1">
-        <v>75600</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>48000</v>
+        <v>1130</v>
       </c>
       <c r="C14" s="1">
-        <v>86400</v>
+        <v>452</v>
       </c>
       <c r="D14" s="3">
-        <v>408</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>54000</v>
+        <v>1300</v>
       </c>
       <c r="C15" s="1">
-        <v>97200</v>
+        <v>520</v>
       </c>
       <c r="D15" s="3">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>60000</v>
+        <v>1480</v>
       </c>
       <c r="C16" s="1">
-        <v>108000</v>
+        <v>592</v>
       </c>
       <c r="D16" s="3">
-        <v>504</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>66000</v>
+        <v>1670</v>
       </c>
       <c r="C17" s="1">
-        <v>144000</v>
+        <v>668</v>
       </c>
       <c r="D17" s="3">
-        <v>552</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>72000</v>
+        <v>1880</v>
       </c>
       <c r="C18" s="1">
-        <v>180000</v>
+        <v>752</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>78000</v>
+        <v>2090</v>
       </c>
       <c r="C19" s="1">
-        <v>216000</v>
+        <v>836</v>
       </c>
       <c r="D19" s="3">
-        <v>648</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>84000</v>
+        <v>2320</v>
       </c>
       <c r="C20" s="1">
-        <v>252000</v>
+        <v>928</v>
       </c>
       <c r="D20" s="3">
-        <v>696</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>90000</v>
+        <v>2560</v>
       </c>
       <c r="C21" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>744</v>
+        <v>1024</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3200</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>96000</v>
+        <v>2810</v>
       </c>
       <c r="C22" s="1">
-        <v>540000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>792</v>
+        <v>1124</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3080</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1232</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3350</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3640</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1456</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3940</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1576</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4250</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4580</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1832</v>
+      </c>
+      <c r="D28" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4910</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1964</v>
+      </c>
+      <c r="D29" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5260</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2104</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5620</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D31" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5990</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2396</v>
+      </c>
+      <c r="D32" s="1">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6380</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2552</v>
+      </c>
+      <c r="D33" s="1">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6770</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2708</v>
+      </c>
+      <c r="D34" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7180</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2872</v>
+      </c>
+      <c r="D35" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7600</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3040</v>
+      </c>
+      <c r="D36" s="1">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8030</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3212</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8480</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3392</v>
+      </c>
+      <c r="D38" s="1">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8930</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3572</v>
+      </c>
+      <c r="D39" s="1">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9400</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3760</v>
+      </c>
+      <c r="D40" s="1">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>180000</v>
       </c>
     </row>
   </sheetData>
@@ -1663,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1687,233 +1957,442 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>320</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>440</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>580</v>
       </c>
       <c r="C7" s="3">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>760</v>
       </c>
       <c r="C8" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>940</v>
       </c>
       <c r="C9" s="3">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="3">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="3">
-        <v>264</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>1660</v>
       </c>
       <c r="C12" s="3">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>1960</v>
       </c>
       <c r="C13" s="3">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>2260</v>
       </c>
       <c r="C14" s="3">
-        <v>408</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>2600</v>
       </c>
       <c r="C15" s="3">
-        <v>456</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>2960</v>
       </c>
       <c r="C16" s="3">
-        <v>504</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>3340</v>
       </c>
       <c r="C17" s="3">
-        <v>552</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>3760</v>
       </c>
       <c r="C18" s="3">
-        <v>600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>4180</v>
       </c>
       <c r="C19" s="3">
-        <v>648</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>4640</v>
       </c>
       <c r="C20" s="3">
-        <v>696</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>744</v>
+        <v>5120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2720</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>792</v>
+        <v>5620</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7280</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7880</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9160</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9820</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10520</v>
+      </c>
+      <c r="C30" s="1">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11240</v>
+      </c>
+      <c r="C31" s="1">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11980</v>
+      </c>
+      <c r="C32" s="1">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12760</v>
+      </c>
+      <c r="C33" s="1">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13540</v>
+      </c>
+      <c r="C34" s="1">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14360</v>
+      </c>
+      <c r="C35" s="1">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16060</v>
+      </c>
+      <c r="C37" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16960</v>
+      </c>
+      <c r="C38" s="1">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17860</v>
+      </c>
+      <c r="C39" s="1">
+        <v>105400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18800</v>
+      </c>
+      <c r="C40" s="1">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>153000</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1954,131 +2433,131 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>320</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>440</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>580</v>
       </c>
       <c r="C7" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>760</v>
       </c>
       <c r="C8" s="3">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>940</v>
       </c>
       <c r="C9" s="3">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="3">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="3">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>1660</v>
       </c>
       <c r="C12" s="3">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>1960</v>
       </c>
       <c r="C13" s="3">
         <v>360</v>
@@ -2086,101 +2565,310 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>2260</v>
       </c>
       <c r="C14" s="3">
-        <v>408</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>2600</v>
       </c>
       <c r="C15" s="3">
-        <v>456</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>2960</v>
       </c>
       <c r="C16" s="3">
-        <v>504</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>3340</v>
       </c>
       <c r="C17" s="3">
-        <v>552</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>3760</v>
       </c>
       <c r="C18" s="3">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>4180</v>
       </c>
       <c r="C19" s="3">
-        <v>648</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>4640</v>
       </c>
       <c r="C20" s="3">
-        <v>696</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>744</v>
+        <v>5120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2880</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>792</v>
+        <v>5620</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7280</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7880</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9160</v>
+      </c>
+      <c r="C28" s="1">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9820</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10520</v>
+      </c>
+      <c r="C30" s="1">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11240</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11980</v>
+      </c>
+      <c r="C32" s="1">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12760</v>
+      </c>
+      <c r="C33" s="1">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13540</v>
+      </c>
+      <c r="C34" s="1">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14360</v>
+      </c>
+      <c r="C35" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16060</v>
+      </c>
+      <c r="C37" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16960</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17860</v>
+      </c>
+      <c r="C39" s="1">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18800</v>
+      </c>
+      <c r="C40" s="1">
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>162000</v>
       </c>
     </row>
   </sheetData>
@@ -2197,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2221,233 +2909,442 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>320</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>440</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>580</v>
       </c>
       <c r="C7" s="3">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>760</v>
       </c>
       <c r="C8" s="3">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>940</v>
       </c>
       <c r="C9" s="3">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="3">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="3">
-        <v>264</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>1660</v>
       </c>
       <c r="C12" s="3">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>1960</v>
       </c>
       <c r="C13" s="3">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>2260</v>
       </c>
       <c r="C14" s="3">
-        <v>408</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>2600</v>
       </c>
       <c r="C15" s="3">
-        <v>456</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>2960</v>
       </c>
       <c r="C16" s="3">
-        <v>504</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>3340</v>
       </c>
       <c r="C17" s="3">
-        <v>552</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>3760</v>
       </c>
       <c r="C18" s="3">
-        <v>600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>4180</v>
       </c>
       <c r="C19" s="3">
-        <v>648</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>4640</v>
       </c>
       <c r="C20" s="3">
-        <v>696</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>744</v>
+        <v>5120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3040</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>792</v>
+        <v>5620</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7280</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7880</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9160</v>
+      </c>
+      <c r="C28" s="1">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9820</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10520</v>
+      </c>
+      <c r="C30" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11240</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11980</v>
+      </c>
+      <c r="C32" s="1">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12760</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13540</v>
+      </c>
+      <c r="C34" s="1">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14360</v>
+      </c>
+      <c r="C35" s="1">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16060</v>
+      </c>
+      <c r="C37" s="1">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16960</v>
+      </c>
+      <c r="C38" s="1">
+        <v>106400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17860</v>
+      </c>
+      <c r="C39" s="1">
+        <v>117800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18800</v>
+      </c>
+      <c r="C40" s="1">
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>171000</v>
       </c>
     </row>
   </sheetData>
@@ -2464,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2488,233 +3385,442 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1800</v>
+        <v>320</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>3600</v>
+        <v>440</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>10800</v>
+        <v>580</v>
       </c>
       <c r="C7" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>21600</v>
+        <v>760</v>
       </c>
       <c r="C8" s="3">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>32400</v>
+        <v>940</v>
       </c>
       <c r="C9" s="3">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>43200</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="3">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>54000</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="3">
-        <v>264</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>64800</v>
+        <v>1660</v>
       </c>
       <c r="C12" s="3">
-        <v>312</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>75600</v>
+        <v>1960</v>
       </c>
       <c r="C13" s="3">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>86400</v>
+        <v>2260</v>
       </c>
       <c r="C14" s="3">
-        <v>408</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>97200</v>
+        <v>2600</v>
       </c>
       <c r="C15" s="3">
-        <v>456</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>108000</v>
+        <v>2960</v>
       </c>
       <c r="C16" s="3">
-        <v>504</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>144000</v>
+        <v>3340</v>
       </c>
       <c r="C17" s="3">
-        <v>552</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>180000</v>
+        <v>3760</v>
       </c>
       <c r="C18" s="3">
-        <v>600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>216000</v>
+        <v>4180</v>
       </c>
       <c r="C19" s="3">
-        <v>648</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>252000</v>
+        <v>4640</v>
       </c>
       <c r="C20" s="3">
-        <v>696</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>288000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>744</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2560</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>540000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>792</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5620</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6160</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7280</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7880</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9160</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9820</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10520</v>
+      </c>
+      <c r="C30" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11240</v>
+      </c>
+      <c r="C31" s="1">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11980</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>12760</v>
+      </c>
+      <c r="C33" s="1">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13540</v>
+      </c>
+      <c r="C34" s="1">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14360</v>
+      </c>
+      <c r="C35" s="1">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16060</v>
+      </c>
+      <c r="C37" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16960</v>
+      </c>
+      <c r="C38" s="1">
+        <v>89600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17860</v>
+      </c>
+      <c r="C39" s="1">
+        <v>99200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18800</v>
+      </c>
+      <c r="C40" s="1">
+        <v>108800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>144000</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -62,15 +62,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
+    <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="316">
+  <cellStyleXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -249,6 +241,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,7 +565,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="316">
+  <cellStyles count="318">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -732,6 +726,7 @@
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -885,6 +880,7 @@
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1336,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1353,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1936,7 +1932,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1949,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2412,7 +2408,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2887,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2901,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -3364,7 +3360,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3377,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -226,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="318">
+  <cellStyleXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -241,6 +241,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,7 +569,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="318">
+  <cellStyles count="322">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -727,6 +731,8 @@
     <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -881,6 +887,8 @@
     <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1333,7 +1341,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1363,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3">
         <v>20</v>
@@ -1377,7 +1385,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
@@ -1391,7 +1399,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="1">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
@@ -1405,7 +1413,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D5" s="3">
         <v>80</v>
@@ -1419,7 +1427,7 @@
         <v>220</v>
       </c>
       <c r="C6" s="1">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
@@ -1433,7 +1441,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="1">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3">
         <v>120</v>
@@ -1447,7 +1455,7 @@
         <v>380</v>
       </c>
       <c r="C8" s="1">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3">
         <v>140</v>
@@ -1461,7 +1469,7 @@
         <v>470</v>
       </c>
       <c r="C9" s="1">
-        <v>188</v>
+        <v>470</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -1475,7 +1483,7 @@
         <v>580</v>
       </c>
       <c r="C10" s="1">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="D10" s="3">
         <v>180</v>
@@ -1489,7 +1497,7 @@
         <v>700</v>
       </c>
       <c r="C11" s="1">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
@@ -1503,7 +1511,7 @@
         <v>830</v>
       </c>
       <c r="C12" s="1">
-        <v>332</v>
+        <v>830</v>
       </c>
       <c r="D12" s="3">
         <v>300</v>
@@ -1517,7 +1525,7 @@
         <v>980</v>
       </c>
       <c r="C13" s="1">
-        <v>392</v>
+        <v>980</v>
       </c>
       <c r="D13" s="3">
         <v>400</v>
@@ -1531,7 +1539,7 @@
         <v>1130</v>
       </c>
       <c r="C14" s="1">
-        <v>452</v>
+        <v>1130</v>
       </c>
       <c r="D14" s="3">
         <v>600</v>
@@ -1545,7 +1553,7 @@
         <v>1300</v>
       </c>
       <c r="C15" s="1">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="D15" s="3">
         <v>800</v>
@@ -1559,7 +1567,7 @@
         <v>1480</v>
       </c>
       <c r="C16" s="1">
-        <v>592</v>
+        <v>1480</v>
       </c>
       <c r="D16" s="3">
         <v>1200</v>
@@ -1573,7 +1581,7 @@
         <v>1670</v>
       </c>
       <c r="C17" s="1">
-        <v>668</v>
+        <v>1670</v>
       </c>
       <c r="D17" s="3">
         <v>1600</v>
@@ -1587,7 +1595,7 @@
         <v>1880</v>
       </c>
       <c r="C18" s="1">
-        <v>752</v>
+        <v>1880</v>
       </c>
       <c r="D18" s="3">
         <v>2000</v>
@@ -1601,7 +1609,7 @@
         <v>2090</v>
       </c>
       <c r="C19" s="1">
-        <v>836</v>
+        <v>2090</v>
       </c>
       <c r="D19" s="3">
         <v>2400</v>
@@ -1615,7 +1623,7 @@
         <v>2320</v>
       </c>
       <c r="C20" s="1">
-        <v>928</v>
+        <v>2320</v>
       </c>
       <c r="D20" s="3">
         <v>2800</v>
@@ -1629,7 +1637,7 @@
         <v>2560</v>
       </c>
       <c r="C21" s="1">
-        <v>1024</v>
+        <v>2560</v>
       </c>
       <c r="D21" s="1">
         <v>3200</v>
@@ -1643,7 +1651,7 @@
         <v>2810</v>
       </c>
       <c r="C22" s="1">
-        <v>1124</v>
+        <v>2810</v>
       </c>
       <c r="D22" s="1">
         <v>3600</v>
@@ -1657,7 +1665,7 @@
         <v>3080</v>
       </c>
       <c r="C23" s="1">
-        <v>1232</v>
+        <v>3080</v>
       </c>
       <c r="D23" s="1">
         <v>5400</v>
@@ -1671,7 +1679,7 @@
         <v>3350</v>
       </c>
       <c r="C24" s="1">
-        <v>1340</v>
+        <v>3350</v>
       </c>
       <c r="D24" s="1">
         <v>7200</v>
@@ -1685,7 +1693,7 @@
         <v>3640</v>
       </c>
       <c r="C25" s="1">
-        <v>1456</v>
+        <v>3640</v>
       </c>
       <c r="D25" s="1">
         <v>9000</v>
@@ -1699,7 +1707,7 @@
         <v>3940</v>
       </c>
       <c r="C26" s="1">
-        <v>1576</v>
+        <v>3940</v>
       </c>
       <c r="D26" s="1">
         <v>12000</v>
@@ -1713,7 +1721,7 @@
         <v>4250</v>
       </c>
       <c r="C27" s="1">
-        <v>1700</v>
+        <v>4250</v>
       </c>
       <c r="D27" s="1">
         <v>18000</v>
@@ -1727,7 +1735,7 @@
         <v>4580</v>
       </c>
       <c r="C28" s="1">
-        <v>1832</v>
+        <v>4580</v>
       </c>
       <c r="D28" s="1">
         <v>24000</v>
@@ -1741,7 +1749,7 @@
         <v>4910</v>
       </c>
       <c r="C29" s="1">
-        <v>1964</v>
+        <v>4910</v>
       </c>
       <c r="D29" s="1">
         <v>32000</v>
@@ -1755,7 +1763,7 @@
         <v>5260</v>
       </c>
       <c r="C30" s="1">
-        <v>2104</v>
+        <v>5260</v>
       </c>
       <c r="D30" s="1">
         <v>40000</v>
@@ -1769,7 +1777,7 @@
         <v>5620</v>
       </c>
       <c r="C31" s="1">
-        <v>2248</v>
+        <v>5620</v>
       </c>
       <c r="D31" s="1">
         <v>48000</v>
@@ -1783,7 +1791,7 @@
         <v>5990</v>
       </c>
       <c r="C32" s="1">
-        <v>2396</v>
+        <v>5990</v>
       </c>
       <c r="D32" s="1">
         <v>56000</v>
@@ -1797,7 +1805,7 @@
         <v>6380</v>
       </c>
       <c r="C33" s="1">
-        <v>2552</v>
+        <v>6380</v>
       </c>
       <c r="D33" s="1">
         <v>64000</v>
@@ -1811,7 +1819,7 @@
         <v>6770</v>
       </c>
       <c r="C34" s="1">
-        <v>2708</v>
+        <v>6770</v>
       </c>
       <c r="D34" s="1">
         <v>72000</v>
@@ -1825,7 +1833,7 @@
         <v>7180</v>
       </c>
       <c r="C35" s="1">
-        <v>2872</v>
+        <v>7180</v>
       </c>
       <c r="D35" s="1">
         <v>80000</v>
@@ -1839,7 +1847,7 @@
         <v>7600</v>
       </c>
       <c r="C36" s="1">
-        <v>3040</v>
+        <v>7600</v>
       </c>
       <c r="D36" s="1">
         <v>88000</v>
@@ -1853,7 +1861,7 @@
         <v>8030</v>
       </c>
       <c r="C37" s="1">
-        <v>3212</v>
+        <v>8030</v>
       </c>
       <c r="D37" s="1">
         <v>100000</v>
@@ -1867,7 +1875,7 @@
         <v>8480</v>
       </c>
       <c r="C38" s="1">
-        <v>3392</v>
+        <v>8480</v>
       </c>
       <c r="D38" s="1">
         <v>112000</v>
@@ -1881,7 +1889,7 @@
         <v>8930</v>
       </c>
       <c r="C39" s="1">
-        <v>3572</v>
+        <v>8930</v>
       </c>
       <c r="D39" s="1">
         <v>124000</v>
@@ -1895,7 +1903,7 @@
         <v>9400</v>
       </c>
       <c r="C40" s="1">
-        <v>3760</v>
+        <v>9400</v>
       </c>
       <c r="D40" s="1">
         <v>136000</v>
@@ -1909,7 +1917,7 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D41" s="1">
         <v>180000</v>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="2040" yWindow="740" windowWidth="30600" windowHeight="18660" tabRatio="333" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="322">
+  <cellStyleXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -241,6 +241,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +571,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="322">
+  <cellStyles count="324">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -733,6 +735,7 @@
     <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -889,6 +892,7 @@
     <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1340,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1371,7 +1375,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3">
         <v>20</v>
@@ -1385,7 +1389,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
@@ -1399,7 +1403,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="1">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
@@ -1413,7 +1417,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D5" s="3">
         <v>80</v>
@@ -1427,7 +1431,7 @@
         <v>220</v>
       </c>
       <c r="C6" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
@@ -1441,7 +1445,7 @@
         <v>290</v>
       </c>
       <c r="C7" s="1">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="D7" s="3">
         <v>120</v>
@@ -1455,7 +1459,7 @@
         <v>380</v>
       </c>
       <c r="C8" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="D8" s="3">
         <v>140</v>
@@ -1469,7 +1473,7 @@
         <v>470</v>
       </c>
       <c r="C9" s="1">
-        <v>470</v>
+        <v>940</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -1483,7 +1487,7 @@
         <v>580</v>
       </c>
       <c r="C10" s="1">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="D10" s="3">
         <v>180</v>
@@ -1497,7 +1501,7 @@
         <v>700</v>
       </c>
       <c r="C11" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
@@ -1511,7 +1515,7 @@
         <v>830</v>
       </c>
       <c r="C12" s="1">
-        <v>830</v>
+        <v>1660</v>
       </c>
       <c r="D12" s="3">
         <v>300</v>
@@ -1525,7 +1529,7 @@
         <v>980</v>
       </c>
       <c r="C13" s="1">
-        <v>980</v>
+        <v>1960</v>
       </c>
       <c r="D13" s="3">
         <v>400</v>
@@ -1539,7 +1543,7 @@
         <v>1130</v>
       </c>
       <c r="C14" s="1">
-        <v>1130</v>
+        <v>2260</v>
       </c>
       <c r="D14" s="3">
         <v>600</v>
@@ -1553,7 +1557,7 @@
         <v>1300</v>
       </c>
       <c r="C15" s="1">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="D15" s="3">
         <v>800</v>
@@ -1567,7 +1571,7 @@
         <v>1480</v>
       </c>
       <c r="C16" s="1">
-        <v>1480</v>
+        <v>2960</v>
       </c>
       <c r="D16" s="3">
         <v>1200</v>
@@ -1581,7 +1585,7 @@
         <v>1670</v>
       </c>
       <c r="C17" s="1">
-        <v>1670</v>
+        <v>3340</v>
       </c>
       <c r="D17" s="3">
         <v>1600</v>
@@ -1595,7 +1599,7 @@
         <v>1880</v>
       </c>
       <c r="C18" s="1">
-        <v>1880</v>
+        <v>3760</v>
       </c>
       <c r="D18" s="3">
         <v>2000</v>
@@ -1609,7 +1613,7 @@
         <v>2090</v>
       </c>
       <c r="C19" s="1">
-        <v>2090</v>
+        <v>4180</v>
       </c>
       <c r="D19" s="3">
         <v>2400</v>
@@ -1623,7 +1627,7 @@
         <v>2320</v>
       </c>
       <c r="C20" s="1">
-        <v>2320</v>
+        <v>4640</v>
       </c>
       <c r="D20" s="3">
         <v>2800</v>
@@ -1637,7 +1641,7 @@
         <v>2560</v>
       </c>
       <c r="C21" s="1">
-        <v>2560</v>
+        <v>5120</v>
       </c>
       <c r="D21" s="1">
         <v>3200</v>
@@ -1651,7 +1655,7 @@
         <v>2810</v>
       </c>
       <c r="C22" s="1">
-        <v>2810</v>
+        <v>5620</v>
       </c>
       <c r="D22" s="1">
         <v>3600</v>
@@ -1665,7 +1669,7 @@
         <v>3080</v>
       </c>
       <c r="C23" s="1">
-        <v>3080</v>
+        <v>6160</v>
       </c>
       <c r="D23" s="1">
         <v>5400</v>
@@ -1679,7 +1683,7 @@
         <v>3350</v>
       </c>
       <c r="C24" s="1">
-        <v>3350</v>
+        <v>6700</v>
       </c>
       <c r="D24" s="1">
         <v>7200</v>
@@ -1693,7 +1697,7 @@
         <v>3640</v>
       </c>
       <c r="C25" s="1">
-        <v>3640</v>
+        <v>7280</v>
       </c>
       <c r="D25" s="1">
         <v>9000</v>
@@ -1707,7 +1711,7 @@
         <v>3940</v>
       </c>
       <c r="C26" s="1">
-        <v>3940</v>
+        <v>7880</v>
       </c>
       <c r="D26" s="1">
         <v>12000</v>
@@ -1721,7 +1725,7 @@
         <v>4250</v>
       </c>
       <c r="C27" s="1">
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="D27" s="1">
         <v>18000</v>
@@ -1735,7 +1739,7 @@
         <v>4580</v>
       </c>
       <c r="C28" s="1">
-        <v>4580</v>
+        <v>9160</v>
       </c>
       <c r="D28" s="1">
         <v>24000</v>
@@ -1749,7 +1753,7 @@
         <v>4910</v>
       </c>
       <c r="C29" s="1">
-        <v>4910</v>
+        <v>9820</v>
       </c>
       <c r="D29" s="1">
         <v>32000</v>
@@ -1763,7 +1767,7 @@
         <v>5260</v>
       </c>
       <c r="C30" s="1">
-        <v>5260</v>
+        <v>10520</v>
       </c>
       <c r="D30" s="1">
         <v>40000</v>
@@ -1777,7 +1781,7 @@
         <v>5620</v>
       </c>
       <c r="C31" s="1">
-        <v>5620</v>
+        <v>11240</v>
       </c>
       <c r="D31" s="1">
         <v>48000</v>
@@ -1791,7 +1795,7 @@
         <v>5990</v>
       </c>
       <c r="C32" s="1">
-        <v>5990</v>
+        <v>11980</v>
       </c>
       <c r="D32" s="1">
         <v>56000</v>
@@ -1805,7 +1809,7 @@
         <v>6380</v>
       </c>
       <c r="C33" s="1">
-        <v>6380</v>
+        <v>12760</v>
       </c>
       <c r="D33" s="1">
         <v>64000</v>
@@ -1819,7 +1823,7 @@
         <v>6770</v>
       </c>
       <c r="C34" s="1">
-        <v>6770</v>
+        <v>13540</v>
       </c>
       <c r="D34" s="1">
         <v>72000</v>
@@ -1833,7 +1837,7 @@
         <v>7180</v>
       </c>
       <c r="C35" s="1">
-        <v>7180</v>
+        <v>14360</v>
       </c>
       <c r="D35" s="1">
         <v>80000</v>
@@ -1847,7 +1851,7 @@
         <v>7600</v>
       </c>
       <c r="C36" s="1">
-        <v>7600</v>
+        <v>15200</v>
       </c>
       <c r="D36" s="1">
         <v>88000</v>
@@ -1861,7 +1865,7 @@
         <v>8030</v>
       </c>
       <c r="C37" s="1">
-        <v>8030</v>
+        <v>16060</v>
       </c>
       <c r="D37" s="1">
         <v>100000</v>
@@ -1875,7 +1879,7 @@
         <v>8480</v>
       </c>
       <c r="C38" s="1">
-        <v>8480</v>
+        <v>16960</v>
       </c>
       <c r="D38" s="1">
         <v>112000</v>
@@ -1889,7 +1893,7 @@
         <v>8930</v>
       </c>
       <c r="C39" s="1">
-        <v>8930</v>
+        <v>17860</v>
       </c>
       <c r="D39" s="1">
         <v>124000</v>
@@ -1903,7 +1907,7 @@
         <v>9400</v>
       </c>
       <c r="C40" s="1">
-        <v>9400</v>
+        <v>18800</v>
       </c>
       <c r="D40" s="1">
         <v>136000</v>
@@ -1917,7 +1921,7 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D41" s="1">
         <v>180000</v>
@@ -1940,7 +1944,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1964,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3">
         <v>17</v>
@@ -1975,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C3" s="3">
         <v>34</v>
@@ -1986,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C4" s="3">
         <v>51</v>
@@ -1997,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C5" s="3">
         <v>68</v>
@@ -2008,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C6" s="3">
         <v>85</v>
@@ -2019,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="C7" s="3">
         <v>102</v>
@@ -2030,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C8" s="3">
         <v>119</v>
@@ -2041,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>940</v>
+        <v>1880</v>
       </c>
       <c r="C9" s="3">
         <v>136</v>
@@ -2052,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1160</v>
+        <v>2320</v>
       </c>
       <c r="C10" s="3">
         <v>153</v>
@@ -2063,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C11" s="3">
         <v>170</v>
@@ -2074,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1660</v>
+        <v>3320</v>
       </c>
       <c r="C12" s="3">
         <v>255</v>
@@ -2085,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1960</v>
+        <v>3920</v>
       </c>
       <c r="C13" s="3">
         <v>340</v>
@@ -2096,7 +2100,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2260</v>
+        <v>4520</v>
       </c>
       <c r="C14" s="3">
         <v>510</v>
@@ -2107,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="C15" s="3">
         <v>680</v>
@@ -2118,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2960</v>
+        <v>5920</v>
       </c>
       <c r="C16" s="3">
         <v>1020</v>
@@ -2129,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>3340</v>
+        <v>6680</v>
       </c>
       <c r="C17" s="3">
         <v>1360</v>
@@ -2140,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>3760</v>
+        <v>7520</v>
       </c>
       <c r="C18" s="3">
         <v>1700</v>
@@ -2151,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4180</v>
+        <v>8360</v>
       </c>
       <c r="C19" s="3">
         <v>2040</v>
@@ -2162,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4640</v>
+        <v>9280</v>
       </c>
       <c r="C20" s="3">
         <v>2380</v>
@@ -2173,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>5120</v>
+        <v>10240</v>
       </c>
       <c r="C21" s="1">
         <v>2720</v>
@@ -2184,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5620</v>
+        <v>11240</v>
       </c>
       <c r="C22" s="1">
         <v>3060</v>
@@ -2195,7 +2199,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6160</v>
+        <v>12320</v>
       </c>
       <c r="C23" s="1">
         <v>4590</v>
@@ -2206,7 +2210,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>6700</v>
+        <v>13400</v>
       </c>
       <c r="C24" s="1">
         <v>6120</v>
@@ -2217,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7280</v>
+        <v>14560</v>
       </c>
       <c r="C25" s="1">
         <v>7650</v>
@@ -2228,7 +2232,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7880</v>
+        <v>15760</v>
       </c>
       <c r="C26" s="1">
         <v>10200</v>
@@ -2239,7 +2243,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="C27" s="1">
         <v>15300</v>
@@ -2250,7 +2254,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9160</v>
+        <v>18320</v>
       </c>
       <c r="C28" s="1">
         <v>20400</v>
@@ -2261,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>9820</v>
+        <v>19640</v>
       </c>
       <c r="C29" s="1">
         <v>27200</v>
@@ -2272,7 +2276,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>10520</v>
+        <v>21040</v>
       </c>
       <c r="C30" s="1">
         <v>34000</v>
@@ -2283,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>11240</v>
+        <v>22480</v>
       </c>
       <c r="C31" s="1">
         <v>40800</v>
@@ -2294,7 +2298,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>11980</v>
+        <v>23960</v>
       </c>
       <c r="C32" s="1">
         <v>47600</v>
@@ -2305,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>12760</v>
+        <v>25520</v>
       </c>
       <c r="C33" s="1">
         <v>54400</v>
@@ -2316,7 +2320,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>13540</v>
+        <v>27080</v>
       </c>
       <c r="C34" s="1">
         <v>61200</v>
@@ -2327,7 +2331,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>14360</v>
+        <v>28720</v>
       </c>
       <c r="C35" s="1">
         <v>68000</v>
@@ -2338,7 +2342,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>15200</v>
+        <v>30400</v>
       </c>
       <c r="C36" s="1">
         <v>74800</v>
@@ -2349,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>16060</v>
+        <v>32120</v>
       </c>
       <c r="C37" s="1">
         <v>85000</v>
@@ -2360,7 +2364,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>16960</v>
+        <v>33920</v>
       </c>
       <c r="C38" s="1">
         <v>95200</v>
@@ -2371,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>17860</v>
+        <v>35720</v>
       </c>
       <c r="C39" s="1">
         <v>105400</v>
@@ -2382,7 +2386,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>18800</v>
+        <v>37600</v>
       </c>
       <c r="C40" s="1">
         <v>115600</v>
@@ -2393,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C41" s="1">
         <v>153000</v>
@@ -2416,7 +2420,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2440,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3">
         <v>18</v>
@@ -2451,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C3" s="3">
         <v>36</v>
@@ -2462,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C4" s="3">
         <v>54</v>
@@ -2473,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C5" s="3">
         <v>72</v>
@@ -2484,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C6" s="3">
         <v>90</v>
@@ -2495,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="C7" s="3">
         <v>108</v>
@@ -2506,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C8" s="3">
         <v>126</v>
@@ -2517,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>940</v>
+        <v>1880</v>
       </c>
       <c r="C9" s="3">
         <v>144</v>
@@ -2528,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1160</v>
+        <v>2320</v>
       </c>
       <c r="C10" s="3">
         <v>162</v>
@@ -2539,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C11" s="3">
         <v>180</v>
@@ -2550,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1660</v>
+        <v>3320</v>
       </c>
       <c r="C12" s="3">
         <v>270</v>
@@ -2561,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1960</v>
+        <v>3920</v>
       </c>
       <c r="C13" s="3">
         <v>360</v>
@@ -2572,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2260</v>
+        <v>4520</v>
       </c>
       <c r="C14" s="3">
         <v>540</v>
@@ -2583,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="C15" s="3">
         <v>720</v>
@@ -2594,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2960</v>
+        <v>5920</v>
       </c>
       <c r="C16" s="3">
         <v>1080</v>
@@ -2605,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>3340</v>
+        <v>6680</v>
       </c>
       <c r="C17" s="3">
         <v>1440</v>
@@ -2616,7 +2620,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>3760</v>
+        <v>7520</v>
       </c>
       <c r="C18" s="3">
         <v>1800</v>
@@ -2627,7 +2631,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4180</v>
+        <v>8360</v>
       </c>
       <c r="C19" s="3">
         <v>2160</v>
@@ -2638,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4640</v>
+        <v>9280</v>
       </c>
       <c r="C20" s="3">
         <v>2520</v>
@@ -2649,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>5120</v>
+        <v>10240</v>
       </c>
       <c r="C21" s="1">
         <v>2880</v>
@@ -2660,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5620</v>
+        <v>11240</v>
       </c>
       <c r="C22" s="1">
         <v>3240</v>
@@ -2671,7 +2675,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6160</v>
+        <v>12320</v>
       </c>
       <c r="C23" s="1">
         <v>4860</v>
@@ -2682,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>6700</v>
+        <v>13400</v>
       </c>
       <c r="C24" s="1">
         <v>6480</v>
@@ -2693,7 +2697,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7280</v>
+        <v>14560</v>
       </c>
       <c r="C25" s="1">
         <v>8100</v>
@@ -2704,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7880</v>
+        <v>15760</v>
       </c>
       <c r="C26" s="1">
         <v>10800</v>
@@ -2715,7 +2719,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="C27" s="1">
         <v>16200</v>
@@ -2726,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9160</v>
+        <v>18320</v>
       </c>
       <c r="C28" s="1">
         <v>21600</v>
@@ -2737,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>9820</v>
+        <v>19640</v>
       </c>
       <c r="C29" s="1">
         <v>28800</v>
@@ -2748,7 +2752,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>10520</v>
+        <v>21040</v>
       </c>
       <c r="C30" s="1">
         <v>36000</v>
@@ -2759,7 +2763,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>11240</v>
+        <v>22480</v>
       </c>
       <c r="C31" s="1">
         <v>43200</v>
@@ -2770,7 +2774,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>11980</v>
+        <v>23960</v>
       </c>
       <c r="C32" s="1">
         <v>50400</v>
@@ -2781,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>12760</v>
+        <v>25520</v>
       </c>
       <c r="C33" s="1">
         <v>57600</v>
@@ -2792,7 +2796,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>13540</v>
+        <v>27080</v>
       </c>
       <c r="C34" s="1">
         <v>64800</v>
@@ -2803,7 +2807,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>14360</v>
+        <v>28720</v>
       </c>
       <c r="C35" s="1">
         <v>72000</v>
@@ -2814,7 +2818,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>15200</v>
+        <v>30400</v>
       </c>
       <c r="C36" s="1">
         <v>79200</v>
@@ -2825,7 +2829,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>16060</v>
+        <v>32120</v>
       </c>
       <c r="C37" s="1">
         <v>90000</v>
@@ -2836,7 +2840,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>16960</v>
+        <v>33920</v>
       </c>
       <c r="C38" s="1">
         <v>100800</v>
@@ -2847,7 +2851,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>17860</v>
+        <v>35720</v>
       </c>
       <c r="C39" s="1">
         <v>111600</v>
@@ -2858,7 +2862,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>18800</v>
+        <v>37600</v>
       </c>
       <c r="C40" s="1">
         <v>122400</v>
@@ -2869,7 +2873,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C41" s="1">
         <v>162000</v>
@@ -2892,7 +2896,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2916,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3">
         <v>19</v>
@@ -2927,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C3" s="3">
         <v>38</v>
@@ -2938,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C4" s="3">
         <v>57</v>
@@ -2949,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C5" s="3">
         <v>76</v>
@@ -2960,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C6" s="3">
         <v>95</v>
@@ -2971,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>580</v>
+        <v>1160</v>
       </c>
       <c r="C7" s="3">
         <v>114</v>
@@ -2982,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C8" s="3">
         <v>133</v>
@@ -2993,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>940</v>
+        <v>1880</v>
       </c>
       <c r="C9" s="3">
         <v>152</v>
@@ -3004,7 +3008,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1160</v>
+        <v>2320</v>
       </c>
       <c r="C10" s="3">
         <v>171</v>
@@ -3015,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C11" s="3">
         <v>190</v>
@@ -3026,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1660</v>
+        <v>3320</v>
       </c>
       <c r="C12" s="3">
         <v>285</v>
@@ -3037,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1960</v>
+        <v>3920</v>
       </c>
       <c r="C13" s="3">
         <v>380</v>
@@ -3048,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2260</v>
+        <v>4520</v>
       </c>
       <c r="C14" s="3">
         <v>570</v>
@@ -3059,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="C15" s="3">
         <v>760</v>
@@ -3070,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2960</v>
+        <v>5920</v>
       </c>
       <c r="C16" s="3">
         <v>1140</v>
@@ -3081,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>3340</v>
+        <v>6680</v>
       </c>
       <c r="C17" s="3">
         <v>1520</v>
@@ -3092,7 +3096,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>3760</v>
+        <v>7520</v>
       </c>
       <c r="C18" s="3">
         <v>1900</v>
@@ -3103,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4180</v>
+        <v>8360</v>
       </c>
       <c r="C19" s="3">
         <v>2280</v>
@@ -3114,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4640</v>
+        <v>9280</v>
       </c>
       <c r="C20" s="3">
         <v>2660</v>
@@ -3125,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>5120</v>
+        <v>10240</v>
       </c>
       <c r="C21" s="1">
         <v>3040</v>
@@ -3136,7 +3140,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5620</v>
+        <v>11240</v>
       </c>
       <c r="C22" s="1">
         <v>3420</v>
@@ -3147,7 +3151,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6160</v>
+        <v>12320</v>
       </c>
       <c r="C23" s="1">
         <v>5130</v>
@@ -3158,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>6700</v>
+        <v>13400</v>
       </c>
       <c r="C24" s="1">
         <v>6840</v>
@@ -3169,7 +3173,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7280</v>
+        <v>14560</v>
       </c>
       <c r="C25" s="1">
         <v>8550</v>
@@ -3180,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7880</v>
+        <v>15760</v>
       </c>
       <c r="C26" s="1">
         <v>11400</v>
@@ -3191,7 +3195,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="C27" s="1">
         <v>17100</v>
@@ -3202,7 +3206,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9160</v>
+        <v>18320</v>
       </c>
       <c r="C28" s="1">
         <v>22800</v>
@@ -3213,7 +3217,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>9820</v>
+        <v>19640</v>
       </c>
       <c r="C29" s="1">
         <v>30400</v>
@@ -3224,7 +3228,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>10520</v>
+        <v>21040</v>
       </c>
       <c r="C30" s="1">
         <v>38000</v>
@@ -3235,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>11240</v>
+        <v>22480</v>
       </c>
       <c r="C31" s="1">
         <v>45600</v>
@@ -3246,7 +3250,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>11980</v>
+        <v>23960</v>
       </c>
       <c r="C32" s="1">
         <v>53200</v>
@@ -3257,7 +3261,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>12760</v>
+        <v>25520</v>
       </c>
       <c r="C33" s="1">
         <v>60800</v>
@@ -3268,7 +3272,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>13540</v>
+        <v>27080</v>
       </c>
       <c r="C34" s="1">
         <v>68400</v>
@@ -3279,7 +3283,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>14360</v>
+        <v>28720</v>
       </c>
       <c r="C35" s="1">
         <v>76000</v>
@@ -3290,7 +3294,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>15200</v>
+        <v>30400</v>
       </c>
       <c r="C36" s="1">
         <v>83600</v>
@@ -3301,7 +3305,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>16060</v>
+        <v>32120</v>
       </c>
       <c r="C37" s="1">
         <v>95000</v>
@@ -3312,7 +3316,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>16960</v>
+        <v>33920</v>
       </c>
       <c r="C38" s="1">
         <v>106400</v>
@@ -3323,7 +3327,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>17860</v>
+        <v>35720</v>
       </c>
       <c r="C39" s="1">
         <v>117800</v>
@@ -3334,7 +3338,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>18800</v>
+        <v>37600</v>
       </c>
       <c r="C40" s="1">
         <v>129200</v>
@@ -3345,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C41" s="1">
         <v>171000</v>
@@ -3367,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3391,8 +3395,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>100</v>
+      <c r="B2" s="1">
+        <v>200</v>
       </c>
       <c r="C2" s="3">
         <v>16</v>
@@ -3402,8 +3406,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>160</v>
+      <c r="B3" s="1">
+        <v>320</v>
       </c>
       <c r="C3" s="3">
         <v>32</v>
@@ -3413,8 +3417,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>220</v>
+      <c r="B4" s="1">
+        <v>440</v>
       </c>
       <c r="C4" s="3">
         <v>48</v>
@@ -3424,8 +3428,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>320</v>
+      <c r="B5" s="1">
+        <v>640</v>
       </c>
       <c r="C5" s="3">
         <v>64</v>
@@ -3435,8 +3439,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>440</v>
+      <c r="B6" s="1">
+        <v>880</v>
       </c>
       <c r="C6" s="3">
         <v>80</v>
@@ -3446,8 +3450,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>580</v>
+      <c r="B7" s="1">
+        <v>1160</v>
       </c>
       <c r="C7" s="3">
         <v>96</v>
@@ -3457,8 +3461,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>760</v>
+      <c r="B8" s="1">
+        <v>1520</v>
       </c>
       <c r="C8" s="3">
         <v>112</v>
@@ -3468,8 +3472,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>940</v>
+      <c r="B9" s="1">
+        <v>1880</v>
       </c>
       <c r="C9" s="3">
         <v>128</v>
@@ -3479,8 +3483,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>1160</v>
+      <c r="B10" s="1">
+        <v>2320</v>
       </c>
       <c r="C10" s="3">
         <v>144</v>
@@ -3490,8 +3494,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1400</v>
+      <c r="B11" s="1">
+        <v>2800</v>
       </c>
       <c r="C11" s="3">
         <v>160</v>
@@ -3501,8 +3505,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1660</v>
+      <c r="B12" s="1">
+        <v>3320</v>
       </c>
       <c r="C12" s="3">
         <v>240</v>
@@ -3512,8 +3516,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1960</v>
+      <c r="B13" s="1">
+        <v>3920</v>
       </c>
       <c r="C13" s="3">
         <v>320</v>
@@ -3523,8 +3527,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>2260</v>
+      <c r="B14" s="1">
+        <v>4520</v>
       </c>
       <c r="C14" s="3">
         <v>480</v>
@@ -3534,8 +3538,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>2600</v>
+      <c r="B15" s="1">
+        <v>5200</v>
       </c>
       <c r="C15" s="3">
         <v>640</v>
@@ -3545,8 +3549,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2960</v>
+      <c r="B16" s="1">
+        <v>5920</v>
       </c>
       <c r="C16" s="3">
         <v>960</v>
@@ -3556,8 +3560,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>3340</v>
+      <c r="B17" s="1">
+        <v>6680</v>
       </c>
       <c r="C17" s="3">
         <v>1280</v>
@@ -3567,8 +3571,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>3760</v>
+      <c r="B18" s="1">
+        <v>7520</v>
       </c>
       <c r="C18" s="3">
         <v>1600</v>
@@ -3578,8 +3582,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>4180</v>
+      <c r="B19" s="1">
+        <v>8360</v>
       </c>
       <c r="C19" s="3">
         <v>1920</v>
@@ -3589,8 +3593,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>4640</v>
+      <c r="B20" s="1">
+        <v>9280</v>
       </c>
       <c r="C20" s="3">
         <v>2240</v>
@@ -3601,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>5120</v>
+        <v>10240</v>
       </c>
       <c r="C21" s="1">
         <v>2560</v>
@@ -3612,7 +3616,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5620</v>
+        <v>11240</v>
       </c>
       <c r="C22" s="1">
         <v>2880</v>
@@ -3623,7 +3627,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>6160</v>
+        <v>12320</v>
       </c>
       <c r="C23" s="1">
         <v>4320</v>
@@ -3634,7 +3638,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>6700</v>
+        <v>13400</v>
       </c>
       <c r="C24" s="1">
         <v>5760</v>
@@ -3645,7 +3649,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7280</v>
+        <v>14560</v>
       </c>
       <c r="C25" s="1">
         <v>7200</v>
@@ -3656,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7880</v>
+        <v>15760</v>
       </c>
       <c r="C26" s="1">
         <v>9600</v>
@@ -3667,7 +3671,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="C27" s="1">
         <v>14400</v>
@@ -3678,7 +3682,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9160</v>
+        <v>18320</v>
       </c>
       <c r="C28" s="1">
         <v>19200</v>
@@ -3689,7 +3693,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>9820</v>
+        <v>19640</v>
       </c>
       <c r="C29" s="1">
         <v>25600</v>
@@ -3700,7 +3704,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>10520</v>
+        <v>21040</v>
       </c>
       <c r="C30" s="1">
         <v>32000</v>
@@ -3711,7 +3715,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>11240</v>
+        <v>22480</v>
       </c>
       <c r="C31" s="1">
         <v>38400</v>
@@ -3722,7 +3726,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>11980</v>
+        <v>23960</v>
       </c>
       <c r="C32" s="1">
         <v>44800</v>
@@ -3733,7 +3737,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>12760</v>
+        <v>25520</v>
       </c>
       <c r="C33" s="1">
         <v>51200</v>
@@ -3744,7 +3748,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>13540</v>
+        <v>27080</v>
       </c>
       <c r="C34" s="1">
         <v>57600</v>
@@ -3755,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>14360</v>
+        <v>28720</v>
       </c>
       <c r="C35" s="1">
         <v>64000</v>
@@ -3766,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>15200</v>
+        <v>30400</v>
       </c>
       <c r="C36" s="1">
         <v>70400</v>
@@ -3777,7 +3781,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>16060</v>
+        <v>32120</v>
       </c>
       <c r="C37" s="1">
         <v>80000</v>
@@ -3788,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>16960</v>
+        <v>33920</v>
       </c>
       <c r="C38" s="1">
         <v>89600</v>
@@ -3799,7 +3803,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>17860</v>
+        <v>35720</v>
       </c>
       <c r="C39" s="1">
         <v>99200</v>
@@ -3810,7 +3814,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>18800</v>
+        <v>37600</v>
       </c>
       <c r="C40" s="1">
         <v>108800</v>
@@ -3821,7 +3825,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C41" s="1">
         <v>144000</v>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="740" windowWidth="30600" windowHeight="18660" tabRatio="333" activeTab="4"/>
+    <workbookView xWindow="2040" yWindow="740" windowWidth="30600" windowHeight="18660" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="324">
+  <cellStyleXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -241,6 +241,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,7 +591,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="324">
+  <cellStyles count="344">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -736,6 +756,16 @@
     <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -893,6 +923,16 @@
     <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1344,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1375,10 +1415,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -1389,10 +1429,10 @@
         <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -1403,10 +1443,10 @@
         <v>110</v>
       </c>
       <c r="C4" s="1">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -1417,10 +1457,10 @@
         <v>160</v>
       </c>
       <c r="C5" s="1">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D5" s="3">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -1431,10 +1471,10 @@
         <v>220</v>
       </c>
       <c r="C6" s="1">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="D6" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -1445,10 +1485,10 @@
         <v>290</v>
       </c>
       <c r="C7" s="1">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="D7" s="3">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -1459,10 +1499,10 @@
         <v>380</v>
       </c>
       <c r="C8" s="1">
-        <v>760</v>
+        <v>530</v>
       </c>
       <c r="D8" s="3">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -1473,10 +1513,10 @@
         <v>470</v>
       </c>
       <c r="C9" s="1">
-        <v>940</v>
+        <v>640</v>
       </c>
       <c r="D9" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -1487,7 +1527,7 @@
         <v>580</v>
       </c>
       <c r="C10" s="1">
-        <v>1160</v>
+        <v>760</v>
       </c>
       <c r="D10" s="3">
         <v>180</v>
@@ -1501,10 +1541,10 @@
         <v>700</v>
       </c>
       <c r="C11" s="1">
-        <v>1400</v>
+        <v>890</v>
       </c>
       <c r="D11" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -1515,10 +1555,10 @@
         <v>830</v>
       </c>
       <c r="C12" s="1">
-        <v>1660</v>
+        <v>1030</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -1529,10 +1569,10 @@
         <v>980</v>
       </c>
       <c r="C13" s="1">
-        <v>1960</v>
+        <v>1180</v>
       </c>
       <c r="D13" s="3">
-        <v>400</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -1543,10 +1583,10 @@
         <v>1130</v>
       </c>
       <c r="C14" s="1">
-        <v>2260</v>
+        <v>1340</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -1557,10 +1597,10 @@
         <v>1300</v>
       </c>
       <c r="C15" s="1">
-        <v>2600</v>
+        <v>1510</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -1571,10 +1611,10 @@
         <v>1480</v>
       </c>
       <c r="C16" s="1">
-        <v>2960</v>
+        <v>1690</v>
       </c>
       <c r="D16" s="3">
-        <v>1200</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1585,10 +1625,10 @@
         <v>1670</v>
       </c>
       <c r="C17" s="1">
-        <v>3340</v>
+        <v>1880</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1599,10 +1639,10 @@
         <v>1880</v>
       </c>
       <c r="C18" s="1">
-        <v>3760</v>
+        <v>2080</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1613,10 +1653,10 @@
         <v>2090</v>
       </c>
       <c r="C19" s="1">
-        <v>4180</v>
+        <v>2290</v>
       </c>
       <c r="D19" s="3">
-        <v>2400</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1627,10 +1667,10 @@
         <v>2320</v>
       </c>
       <c r="C20" s="1">
-        <v>4640</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2800</v>
+        <v>2510</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6390</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1641,10 +1681,10 @@
         <v>2560</v>
       </c>
       <c r="C21" s="1">
-        <v>5120</v>
+        <v>2740</v>
       </c>
       <c r="D21" s="1">
-        <v>3200</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1655,10 +1695,10 @@
         <v>2810</v>
       </c>
       <c r="C22" s="1">
-        <v>5620</v>
+        <v>2980</v>
       </c>
       <c r="D22" s="1">
-        <v>3600</v>
+        <v>10190</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -1669,10 +1709,10 @@
         <v>3080</v>
       </c>
       <c r="C23" s="1">
-        <v>6160</v>
+        <v>3230</v>
       </c>
       <c r="D23" s="1">
-        <v>5400</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -1683,10 +1723,10 @@
         <v>3350</v>
       </c>
       <c r="C24" s="1">
-        <v>6700</v>
+        <v>3490</v>
       </c>
       <c r="D24" s="1">
-        <v>7200</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -1697,10 +1737,10 @@
         <v>3640</v>
       </c>
       <c r="C25" s="1">
-        <v>7280</v>
+        <v>3760</v>
       </c>
       <c r="D25" s="1">
-        <v>9000</v>
+        <v>15180</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -1711,10 +1751,10 @@
         <v>3940</v>
       </c>
       <c r="C26" s="1">
-        <v>7880</v>
+        <v>4040</v>
       </c>
       <c r="D26" s="1">
-        <v>12000</v>
+        <v>20740</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -1725,10 +1765,10 @@
         <v>4250</v>
       </c>
       <c r="C27" s="1">
-        <v>8500</v>
+        <v>4330</v>
       </c>
       <c r="D27" s="1">
-        <v>18000</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -1739,10 +1779,10 @@
         <v>4580</v>
       </c>
       <c r="C28" s="1">
-        <v>9160</v>
+        <v>4630</v>
       </c>
       <c r="D28" s="1">
-        <v>24000</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -1753,10 +1793,10 @@
         <v>4910</v>
       </c>
       <c r="C29" s="1">
-        <v>9820</v>
+        <v>4940</v>
       </c>
       <c r="D29" s="1">
-        <v>32000</v>
+        <v>28780</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -1767,10 +1807,10 @@
         <v>5260</v>
       </c>
       <c r="C30" s="1">
-        <v>10520</v>
+        <v>5260</v>
       </c>
       <c r="D30" s="1">
-        <v>40000</v>
+        <v>40970</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -1781,10 +1821,10 @@
         <v>5620</v>
       </c>
       <c r="C31" s="1">
-        <v>11240</v>
+        <v>5590</v>
       </c>
       <c r="D31" s="1">
-        <v>48000</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -1795,10 +1835,10 @@
         <v>5990</v>
       </c>
       <c r="C32" s="1">
-        <v>11980</v>
+        <v>5940</v>
       </c>
       <c r="D32" s="1">
-        <v>56000</v>
+        <v>54630</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -1809,10 +1849,10 @@
         <v>6380</v>
       </c>
       <c r="C33" s="1">
-        <v>12760</v>
+        <v>6310</v>
       </c>
       <c r="D33" s="1">
-        <v>64000</v>
+        <v>61980</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -1823,10 +1863,10 @@
         <v>6770</v>
       </c>
       <c r="C34" s="1">
-        <v>13540</v>
+        <v>6700</v>
       </c>
       <c r="D34" s="1">
-        <v>72000</v>
+        <v>84840</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -1837,10 +1877,10 @@
         <v>7180</v>
       </c>
       <c r="C35" s="1">
-        <v>14360</v>
+        <v>7110</v>
       </c>
       <c r="D35" s="1">
-        <v>80000</v>
+        <v>95340</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -1851,10 +1891,10 @@
         <v>7600</v>
       </c>
       <c r="C36" s="1">
-        <v>15200</v>
+        <v>7540</v>
       </c>
       <c r="D36" s="1">
-        <v>88000</v>
+        <v>107390</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -1865,10 +1905,10 @@
         <v>8030</v>
       </c>
       <c r="C37" s="1">
-        <v>16060</v>
+        <v>7990</v>
       </c>
       <c r="D37" s="1">
-        <v>100000</v>
+        <v>119530</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -1879,10 +1919,10 @@
         <v>8480</v>
       </c>
       <c r="C38" s="1">
-        <v>16960</v>
+        <v>8460</v>
       </c>
       <c r="D38" s="1">
-        <v>112000</v>
+        <v>160740</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -1893,10 +1933,10 @@
         <v>8930</v>
       </c>
       <c r="C39" s="1">
-        <v>17860</v>
+        <v>8950</v>
       </c>
       <c r="D39" s="1">
-        <v>124000</v>
+        <v>177820</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -1907,10 +1947,10 @@
         <v>9400</v>
       </c>
       <c r="C40" s="1">
-        <v>18800</v>
+        <v>9460</v>
       </c>
       <c r="D40" s="1">
-        <v>136000</v>
+        <v>197140</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -1921,10 +1961,10 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D41" s="1">
-        <v>180000</v>
+        <v>216850</v>
       </c>
     </row>
   </sheetData>
@@ -1943,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1968,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -1979,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -1990,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C4" s="3">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -2001,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="C5" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -2012,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="C6" s="3">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -2023,10 +2063,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1160</v>
+        <v>860</v>
       </c>
       <c r="C7" s="3">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -2034,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1520</v>
+        <v>1060</v>
       </c>
       <c r="C8" s="3">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -2045,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1880</v>
+        <v>1280</v>
       </c>
       <c r="C9" s="3">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -2056,10 +2096,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2320</v>
+        <v>1520</v>
       </c>
       <c r="C10" s="3">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -2067,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2800</v>
+        <v>1780</v>
       </c>
       <c r="C11" s="3">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -2078,10 +2118,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3320</v>
+        <v>2060</v>
       </c>
       <c r="C12" s="3">
-        <v>255</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -2089,10 +2129,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3920</v>
+        <v>2360</v>
       </c>
       <c r="C13" s="3">
-        <v>340</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -2100,10 +2140,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4520</v>
+        <v>2680</v>
       </c>
       <c r="C14" s="3">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -2111,10 +2151,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5200</v>
+        <v>3020</v>
       </c>
       <c r="C15" s="3">
-        <v>680</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -2122,10 +2162,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5920</v>
+        <v>3380</v>
       </c>
       <c r="C16" s="3">
-        <v>1020</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -2133,10 +2173,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>6680</v>
+        <v>3760</v>
       </c>
       <c r="C17" s="3">
-        <v>1360</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -2144,10 +2184,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>7520</v>
+        <v>4160</v>
       </c>
       <c r="C18" s="3">
-        <v>1700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -2155,10 +2195,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>8360</v>
+        <v>4580</v>
       </c>
       <c r="C19" s="3">
-        <v>2040</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -2166,10 +2206,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>9280</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2380</v>
+        <v>5020</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -2177,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>10240</v>
+        <v>5480</v>
       </c>
       <c r="C21" s="1">
-        <v>2720</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -2188,10 +2228,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>11240</v>
+        <v>5960</v>
       </c>
       <c r="C22" s="1">
-        <v>3060</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -2199,10 +2239,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>12320</v>
+        <v>6460</v>
       </c>
       <c r="C23" s="1">
-        <v>4590</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -2210,10 +2250,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>13400</v>
+        <v>6980</v>
       </c>
       <c r="C24" s="1">
-        <v>6120</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -2221,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>14560</v>
+        <v>7520</v>
       </c>
       <c r="C25" s="1">
-        <v>7650</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -2232,10 +2272,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>15760</v>
+        <v>8080</v>
       </c>
       <c r="C26" s="1">
-        <v>10200</v>
+        <v>16590</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -2243,10 +2283,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>17000</v>
+        <v>8660</v>
       </c>
       <c r="C27" s="1">
-        <v>15300</v>
+        <v>18520</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -2254,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>18320</v>
+        <v>9260</v>
       </c>
       <c r="C28" s="1">
-        <v>20400</v>
+        <v>20830</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -2265,10 +2305,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>19640</v>
+        <v>9880</v>
       </c>
       <c r="C29" s="1">
-        <v>27200</v>
+        <v>23020</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -2276,10 +2316,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>21040</v>
+        <v>10520</v>
       </c>
       <c r="C30" s="1">
-        <v>34000</v>
+        <v>32770</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -2287,10 +2327,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>22480</v>
+        <v>11180</v>
       </c>
       <c r="C31" s="1">
-        <v>40800</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -2298,10 +2338,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>23960</v>
+        <v>11880</v>
       </c>
       <c r="C32" s="1">
-        <v>47600</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -2309,10 +2349,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>25520</v>
+        <v>12620</v>
       </c>
       <c r="C33" s="1">
-        <v>54400</v>
+        <v>49580</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -2320,10 +2360,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>27080</v>
+        <v>13400</v>
       </c>
       <c r="C34" s="1">
-        <v>61200</v>
+        <v>67870</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -2331,10 +2371,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>28720</v>
+        <v>14220</v>
       </c>
       <c r="C35" s="1">
-        <v>68000</v>
+        <v>76270</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -2342,10 +2382,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>30400</v>
+        <v>15080</v>
       </c>
       <c r="C36" s="1">
-        <v>74800</v>
+        <v>85910</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -2353,10 +2393,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32120</v>
+        <v>15980</v>
       </c>
       <c r="C37" s="1">
-        <v>85000</v>
+        <v>95620</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -2364,10 +2404,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33920</v>
+        <v>16920</v>
       </c>
       <c r="C38" s="1">
-        <v>95200</v>
+        <v>128590</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -2375,10 +2415,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>35720</v>
+        <v>17900</v>
       </c>
       <c r="C39" s="1">
-        <v>105400</v>
+        <v>142260</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -2386,10 +2426,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>37600</v>
+        <v>18920</v>
       </c>
       <c r="C40" s="1">
-        <v>115600</v>
+        <v>157710</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -2397,10 +2437,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="C41" s="1">
-        <v>153000</v>
+        <v>173480</v>
       </c>
     </row>
   </sheetData>
@@ -2417,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2444,440 +2484,443 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>320</v>
+      <c r="B3" s="3">
+        <v>260</v>
       </c>
       <c r="C3" s="3">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>440</v>
+      <c r="B4" s="3">
+        <v>380</v>
       </c>
       <c r="C4" s="3">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>640</v>
+      <c r="B5" s="3">
+        <v>520</v>
       </c>
       <c r="C5" s="3">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>880</v>
+      <c r="B6" s="3">
+        <v>680</v>
       </c>
       <c r="C6" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1160</v>
+      <c r="B7" s="3">
+        <v>860</v>
       </c>
       <c r="C7" s="3">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1520</v>
+      <c r="B8" s="3">
+        <v>1060</v>
       </c>
       <c r="C8" s="3">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1880</v>
+      <c r="B9" s="3">
+        <v>1280</v>
       </c>
       <c r="C9" s="3">
-        <v>144</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2320</v>
+      <c r="B10" s="3">
+        <v>1520</v>
       </c>
       <c r="C10" s="3">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2800</v>
+      <c r="B11" s="3">
+        <v>1780</v>
       </c>
       <c r="C11" s="3">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>3320</v>
+      <c r="B12" s="3">
+        <v>2060</v>
       </c>
       <c r="C12" s="3">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3920</v>
+      <c r="B13" s="3">
+        <v>2360</v>
       </c>
       <c r="C13" s="3">
-        <v>360</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>4520</v>
+      <c r="B14" s="3">
+        <v>2680</v>
       </c>
       <c r="C14" s="3">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>5200</v>
+      <c r="B15" s="3">
+        <v>3020</v>
       </c>
       <c r="C15" s="3">
-        <v>720</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>5920</v>
+      <c r="B16" s="3">
+        <v>3380</v>
       </c>
       <c r="C16" s="3">
-        <v>1080</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>6680</v>
+      <c r="B17" s="3">
+        <v>3760</v>
       </c>
       <c r="C17" s="3">
-        <v>1440</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>7520</v>
+      <c r="B18" s="3">
+        <v>4160</v>
       </c>
       <c r="C18" s="3">
-        <v>1800</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>8360</v>
+      <c r="B19" s="3">
+        <v>4580</v>
       </c>
       <c r="C19" s="3">
-        <v>2160</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>9280</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2520</v>
+      <c r="B20" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5540</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>10240</v>
+      <c r="B21" s="3">
+        <v>5480</v>
       </c>
       <c r="C21" s="1">
-        <v>2880</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>11240</v>
+      <c r="B22" s="3">
+        <v>5960</v>
       </c>
       <c r="C22" s="1">
-        <v>3240</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>12320</v>
+      <c r="B23" s="3">
+        <v>6460</v>
       </c>
       <c r="C23" s="1">
-        <v>4860</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>13400</v>
+      <c r="B24" s="3">
+        <v>6980</v>
       </c>
       <c r="C24" s="1">
-        <v>6480</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>14560</v>
+      <c r="B25" s="3">
+        <v>7520</v>
       </c>
       <c r="C25" s="1">
-        <v>8100</v>
+        <v>13150</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>15760</v>
+      <c r="B26" s="3">
+        <v>8080</v>
       </c>
       <c r="C26" s="1">
-        <v>10800</v>
+        <v>17970</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>17000</v>
+      <c r="B27" s="3">
+        <v>8660</v>
       </c>
       <c r="C27" s="1">
-        <v>16200</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>18320</v>
+      <c r="B28" s="3">
+        <v>9260</v>
       </c>
       <c r="C28" s="1">
-        <v>21600</v>
+        <v>22570</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>19640</v>
+      <c r="B29" s="3">
+        <v>9880</v>
       </c>
       <c r="C29" s="1">
-        <v>28800</v>
+        <v>24940</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>21040</v>
+      <c r="B30" s="3">
+        <v>10520</v>
       </c>
       <c r="C30" s="1">
-        <v>36000</v>
+        <v>35510</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>22480</v>
+      <c r="B31" s="3">
+        <v>11180</v>
       </c>
       <c r="C31" s="1">
-        <v>43200</v>
+        <v>40990</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>23960</v>
+      <c r="B32" s="3">
+        <v>11880</v>
       </c>
       <c r="C32" s="1">
-        <v>50400</v>
+        <v>47340</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>25520</v>
+      <c r="B33" s="3">
+        <v>12620</v>
       </c>
       <c r="C33" s="1">
-        <v>57600</v>
+        <v>53720</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>27080</v>
+      <c r="B34" s="3">
+        <v>13400</v>
       </c>
       <c r="C34" s="1">
-        <v>64800</v>
+        <v>73530</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>28720</v>
+      <c r="B35" s="3">
+        <v>14220</v>
       </c>
       <c r="C35" s="1">
-        <v>72000</v>
+        <v>82620</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>30400</v>
+      <c r="B36" s="3">
+        <v>15080</v>
       </c>
       <c r="C36" s="1">
-        <v>79200</v>
+        <v>93070</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>32120</v>
+      <c r="B37" s="3">
+        <v>15980</v>
       </c>
       <c r="C37" s="1">
-        <v>90000</v>
+        <v>103590</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>33920</v>
+      <c r="B38" s="3">
+        <v>16920</v>
       </c>
       <c r="C38" s="1">
-        <v>100800</v>
+        <v>139310</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>35720</v>
+      <c r="B39" s="3">
+        <v>17900</v>
       </c>
       <c r="C39" s="1">
-        <v>111600</v>
+        <v>154110</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>37600</v>
+      <c r="B40" s="3">
+        <v>18920</v>
       </c>
       <c r="C40" s="1">
-        <v>122400</v>
+        <v>170850</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>40000</v>
+      <c r="B41" s="3">
+        <v>20000</v>
       </c>
       <c r="C41" s="1">
-        <v>162000</v>
-      </c>
+        <v>187930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2893,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2920,440 +2963,443 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>320</v>
+      <c r="B3" s="3">
+        <v>260</v>
       </c>
       <c r="C3" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>440</v>
+      <c r="B4" s="3">
+        <v>380</v>
       </c>
       <c r="C4" s="3">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>640</v>
+      <c r="B5" s="3">
+        <v>520</v>
       </c>
       <c r="C5" s="3">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>880</v>
+      <c r="B6" s="3">
+        <v>680</v>
       </c>
       <c r="C6" s="3">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1160</v>
+      <c r="B7" s="3">
+        <v>860</v>
       </c>
       <c r="C7" s="3">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1520</v>
+      <c r="B8" s="3">
+        <v>1060</v>
       </c>
       <c r="C8" s="3">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1880</v>
+      <c r="B9" s="3">
+        <v>1280</v>
       </c>
       <c r="C9" s="3">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2320</v>
+      <c r="B10" s="3">
+        <v>1520</v>
       </c>
       <c r="C10" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2800</v>
+      <c r="B11" s="3">
+        <v>1780</v>
       </c>
       <c r="C11" s="3">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>3320</v>
+      <c r="B12" s="3">
+        <v>2060</v>
       </c>
       <c r="C12" s="3">
-        <v>285</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3920</v>
+      <c r="B13" s="3">
+        <v>2360</v>
       </c>
       <c r="C13" s="3">
-        <v>380</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>4520</v>
+      <c r="B14" s="3">
+        <v>2680</v>
       </c>
       <c r="C14" s="3">
-        <v>570</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>5200</v>
+      <c r="B15" s="3">
+        <v>3020</v>
       </c>
       <c r="C15" s="3">
-        <v>760</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>5920</v>
+      <c r="B16" s="3">
+        <v>3380</v>
       </c>
       <c r="C16" s="3">
-        <v>1140</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>6680</v>
+      <c r="B17" s="3">
+        <v>3760</v>
       </c>
       <c r="C17" s="3">
-        <v>1520</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>7520</v>
+      <c r="B18" s="3">
+        <v>4160</v>
       </c>
       <c r="C18" s="3">
-        <v>1900</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>8360</v>
+      <c r="B19" s="3">
+        <v>4580</v>
       </c>
       <c r="C19" s="3">
-        <v>2280</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>9280</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2660</v>
+      <c r="B20" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5960</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>10240</v>
+      <c r="B21" s="3">
+        <v>5480</v>
       </c>
       <c r="C21" s="1">
-        <v>3040</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>11240</v>
+      <c r="B22" s="3">
+        <v>5960</v>
       </c>
       <c r="C22" s="1">
-        <v>3420</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>12320</v>
+      <c r="B23" s="3">
+        <v>6460</v>
       </c>
       <c r="C23" s="1">
-        <v>5130</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>13400</v>
+      <c r="B24" s="3">
+        <v>6980</v>
       </c>
       <c r="C24" s="1">
-        <v>6840</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>14560</v>
+      <c r="B25" s="3">
+        <v>7520</v>
       </c>
       <c r="C25" s="1">
-        <v>8550</v>
+        <v>14170</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>15760</v>
+      <c r="B26" s="3">
+        <v>8080</v>
       </c>
       <c r="C26" s="1">
-        <v>11400</v>
+        <v>19350</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>17000</v>
+      <c r="B27" s="3">
+        <v>8660</v>
       </c>
       <c r="C27" s="1">
-        <v>17100</v>
+        <v>21610</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>18320</v>
+      <c r="B28" s="3">
+        <v>9260</v>
       </c>
       <c r="C28" s="1">
-        <v>22800</v>
+        <v>24310</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>19640</v>
+      <c r="B29" s="3">
+        <v>9880</v>
       </c>
       <c r="C29" s="1">
-        <v>30400</v>
+        <v>26860</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>21040</v>
+      <c r="B30" s="3">
+        <v>10520</v>
       </c>
       <c r="C30" s="1">
-        <v>38000</v>
+        <v>38240</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>22480</v>
+      <c r="B31" s="3">
+        <v>11180</v>
       </c>
       <c r="C31" s="1">
-        <v>45600</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>23960</v>
+      <c r="B32" s="3">
+        <v>11880</v>
       </c>
       <c r="C32" s="1">
-        <v>53200</v>
+        <v>50990</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>25520</v>
+      <c r="B33" s="3">
+        <v>12620</v>
       </c>
       <c r="C33" s="1">
-        <v>60800</v>
+        <v>57850</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>27080</v>
+      <c r="B34" s="3">
+        <v>13400</v>
       </c>
       <c r="C34" s="1">
-        <v>68400</v>
+        <v>79190</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>28720</v>
+      <c r="B35" s="3">
+        <v>14220</v>
       </c>
       <c r="C35" s="1">
-        <v>76000</v>
+        <v>88980</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>30400</v>
+      <c r="B36" s="3">
+        <v>15080</v>
       </c>
       <c r="C36" s="1">
-        <v>83600</v>
+        <v>100230</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>32120</v>
+      <c r="B37" s="3">
+        <v>15980</v>
       </c>
       <c r="C37" s="1">
-        <v>95000</v>
+        <v>111560</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>33920</v>
+      <c r="B38" s="3">
+        <v>16920</v>
       </c>
       <c r="C38" s="1">
-        <v>106400</v>
+        <v>150030</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>35720</v>
+      <c r="B39" s="3">
+        <v>17900</v>
       </c>
       <c r="C39" s="1">
-        <v>117800</v>
+        <v>165970</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>37600</v>
+      <c r="B40" s="3">
+        <v>18920</v>
       </c>
       <c r="C40" s="1">
-        <v>129200</v>
+        <v>184000</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>40000</v>
+      <c r="B41" s="3">
+        <v>20000</v>
       </c>
       <c r="C41" s="1">
-        <v>171000</v>
-      </c>
+        <v>202390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3369,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3396,139 +3442,139 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>320</v>
+      <c r="B3" s="3">
+        <v>260</v>
       </c>
       <c r="C3" s="3">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>440</v>
+      <c r="B4" s="3">
+        <v>380</v>
       </c>
       <c r="C4" s="3">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>640</v>
+      <c r="B5" s="3">
+        <v>520</v>
       </c>
       <c r="C5" s="3">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>880</v>
+      <c r="B6" s="3">
+        <v>680</v>
       </c>
       <c r="C6" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1160</v>
+      <c r="B7" s="3">
+        <v>860</v>
       </c>
       <c r="C7" s="3">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1520</v>
+      <c r="B8" s="3">
+        <v>1060</v>
       </c>
       <c r="C8" s="3">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1880</v>
+      <c r="B9" s="3">
+        <v>1280</v>
       </c>
       <c r="C9" s="3">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2320</v>
+      <c r="B10" s="3">
+        <v>1520</v>
       </c>
       <c r="C10" s="3">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2800</v>
+      <c r="B11" s="3">
+        <v>1780</v>
       </c>
       <c r="C11" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>3320</v>
+      <c r="B12" s="3">
+        <v>2060</v>
       </c>
       <c r="C12" s="3">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3920</v>
+      <c r="B13" s="3">
+        <v>2360</v>
       </c>
       <c r="C13" s="3">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>4520</v>
+      <c r="B14" s="3">
+        <v>2680</v>
       </c>
       <c r="C14" s="3">
         <v>480</v>
@@ -3538,298 +3584,301 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>5200</v>
+      <c r="B15" s="3">
+        <v>3020</v>
       </c>
       <c r="C15" s="3">
-        <v>640</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>5920</v>
+      <c r="B16" s="3">
+        <v>3380</v>
       </c>
       <c r="C16" s="3">
-        <v>960</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>6680</v>
+      <c r="B17" s="3">
+        <v>3760</v>
       </c>
       <c r="C17" s="3">
-        <v>1280</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>7520</v>
+      <c r="B18" s="3">
+        <v>4160</v>
       </c>
       <c r="C18" s="3">
-        <v>1600</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>8360</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1920</v>
+      <c r="B19" s="3">
+        <v>4580</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3830</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>9280</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2240</v>
+      <c r="B20" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4680</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>10240</v>
+      <c r="B21" s="3">
+        <v>5480</v>
       </c>
       <c r="C21" s="1">
-        <v>2560</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>11240</v>
+      <c r="B22" s="3">
+        <v>5960</v>
       </c>
       <c r="C22" s="1">
-        <v>2880</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>12320</v>
+      <c r="B23" s="3">
+        <v>6460</v>
       </c>
       <c r="C23" s="1">
-        <v>4320</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>13400</v>
+      <c r="B24" s="3">
+        <v>6980</v>
       </c>
       <c r="C24" s="1">
-        <v>5760</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>14560</v>
+      <c r="B25" s="3">
+        <v>7520</v>
       </c>
       <c r="C25" s="1">
-        <v>7200</v>
+        <v>11130</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>15760</v>
+      <c r="B26" s="3">
+        <v>8080</v>
       </c>
       <c r="C26" s="1">
-        <v>9600</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>17000</v>
+      <c r="B27" s="3">
+        <v>8660</v>
       </c>
       <c r="C27" s="1">
-        <v>14400</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>18320</v>
+      <c r="B28" s="3">
+        <v>9260</v>
       </c>
       <c r="C28" s="1">
-        <v>19200</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>19640</v>
+      <c r="B29" s="3">
+        <v>9880</v>
       </c>
       <c r="C29" s="1">
-        <v>25600</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>21040</v>
+      <c r="B30" s="3">
+        <v>10520</v>
       </c>
       <c r="C30" s="1">
-        <v>32000</v>
+        <v>30040</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>22480</v>
+      <c r="B31" s="3">
+        <v>11180</v>
       </c>
       <c r="C31" s="1">
-        <v>38400</v>
+        <v>34680</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>23960</v>
+      <c r="B32" s="3">
+        <v>11880</v>
       </c>
       <c r="C32" s="1">
-        <v>44800</v>
+        <v>40060</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>25520</v>
+      <c r="B33" s="3">
+        <v>12620</v>
       </c>
       <c r="C33" s="1">
-        <v>51200</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>27080</v>
+      <c r="B34" s="3">
+        <v>13400</v>
       </c>
       <c r="C34" s="1">
-        <v>57600</v>
+        <v>62220</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>28720</v>
+      <c r="B35" s="3">
+        <v>14220</v>
       </c>
       <c r="C35" s="1">
-        <v>64000</v>
+        <v>69910</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>30400</v>
+      <c r="B36" s="3">
+        <v>15080</v>
       </c>
       <c r="C36" s="1">
-        <v>70400</v>
+        <v>78750</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>32120</v>
+      <c r="B37" s="3">
+        <v>15980</v>
       </c>
       <c r="C37" s="1">
-        <v>80000</v>
+        <v>87650</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>33920</v>
+      <c r="B38" s="3">
+        <v>16920</v>
       </c>
       <c r="C38" s="1">
-        <v>89600</v>
+        <v>117880</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>35720</v>
+      <c r="B39" s="3">
+        <v>17900</v>
       </c>
       <c r="C39" s="1">
-        <v>99200</v>
+        <v>130400</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>37600</v>
+      <c r="B40" s="3">
+        <v>18920</v>
       </c>
       <c r="C40" s="1">
-        <v>108800</v>
+        <v>144570</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>40000</v>
+      <c r="B41" s="3">
+        <v>20000</v>
       </c>
       <c r="C41" s="1">
-        <v>144000</v>
-      </c>
+        <v>159020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
